--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb6795f18313949e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rfa0e87e3b9e14f9d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rfa0e87e3b9e14f9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R1190dabb1f064fc5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R1190dabb1f064fc5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R20d0b6b99ff741f9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R20d0b6b99ff741f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8c0e63a5cb2f47b1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,28 +28,28 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="20"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="FF0000"/>
+      <x:color rgb="FFFF0000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
@@ -57,7 +57,7 @@
       <x:i/>
       <a:uLn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8c0e63a5cb2f47b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R32c19a418e8749c8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R32c19a418e8749c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R6147434e45564fdb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R6147434e45564fdb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R3fe2868aed574270"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R3fe2868aed574270"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R3fdee95eafe54959"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R3fdee95eafe54959"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8f31262c9193490b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8f31262c9193490b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Ra7518dcde7754315"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Ra7518dcde7754315"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8e5c8e8595e34b4f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8e5c8e8595e34b4f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rf4b1f9ad7ea84bcd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rf4b1f9ad7ea84bcd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R634a0a31d5ab4d8e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R634a0a31d5ab4d8e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rd193f48d91a64b69"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rd193f48d91a64b69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8e539148af444a4a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R8e539148af444a4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R5205ebdc53404a7b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R5205ebdc53404a7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R467e3dcdecc24f01"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R467e3dcdecc24f01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc290ed441f21437e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc290ed441f21437e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rcc380bea673243c8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rcc380bea673243c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R6085c6807b0c4f6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R6085c6807b0c4f6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R76a339a415634f86"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R76a339a415634f86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Radff3be64f5f4bbc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Radff3be64f5f4bbc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc8ec52c712c04176"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc8ec52c712c04176"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rae2884539b0341b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rae2884539b0341b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rd78a87ff4c6f4523"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rd78a87ff4c6f4523"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R95e3a2f6e72c4b3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R95e3a2f6e72c4b3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R2099111aab36477c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R2099111aab36477c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R88f49575117449b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R88f49575117449b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R57bbbafb41e245bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R57bbbafb41e245bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc5bb0b97263d4460"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rc5bb0b97263d4460"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Reb8c6accb7e941c8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Reb8c6accb7e941c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Raef663d6eac044ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Raef663d6eac044ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb0c2086debd540e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb0c2086debd540e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re40f4c0adbd8436a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re40f4c0adbd8436a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R0a770cae19e4489d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R0a770cae19e4489d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R26a0bc78ea7644a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R26a0bc78ea7644a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R87eccf53afe44407"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R87eccf53afe44407"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4c65e487445e4d55"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4c65e487445e4d55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4af245ff54324217"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4af245ff54324217"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R21efcf06e7c44717"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R21efcf06e7c44717"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4c62e445cfff4765"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R4c62e445cfff4765"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R860f86c3dae04070"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R860f86c3dae04070"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R5c2eba7da338401c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R5c2eba7da338401c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R93df0dffdcd044cf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/06_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R93df0dffdcd044cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb422027982f54495"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
